--- a/ecosysem/reactions/Excel/electrolytes.xlsx
+++ b/ecosysem/reactions/Excel/electrolytes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\reactions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5ACF73-BBCE-44B1-B805-8C7E73E768F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAF8C00-CA73-4AF9-B63A-44DF42E5E29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{CE2D5BDF-8686-4A3C-889C-2246BF6977DD}"/>
+    <workbookView xWindow="-4044" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{CE2D5BDF-8686-4A3C-889C-2246BF6977DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,10 +163,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,7 +488,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
